--- a/Results/Battery_Impact factors_results.xlsx
+++ b/Results/Battery_Impact factors_results.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20402"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\prag_ga\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\quinters_adm\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{691421B9-F909-437A-AF72-7A37B9DF9398}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8196" xr2:uid="{5514082F-2EFF-4AAA-907D-D1D41E16E4FC}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6350"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -168,7 +167,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -178,12 +177,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -198,8 +203,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -220,7 +226,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="fr-FR"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -252,11 +258,12 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>GWP</a:t>
+              <a:t>Global warming potential</a:t>
             </a:r>
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -671,11 +678,22 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>CO2 Eq. (Kg)</a:t>
+                  <a:t>kg CO2-</a:t>
                 </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> Eq</a:t>
+                </a:r>
+              </a:p>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -750,6 +768,7 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -757,7 +776,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:noFill/>
@@ -788,7 +806,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="fr-FR"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -820,11 +838,12 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>GWP</a:t>
+              <a:t>Water use</a:t>
             </a:r>
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -874,6 +893,196 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="92D050"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-01EF-44B5-89EB-380EAC329FD0}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="92D050"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-01EF-44B5-89EB-380EAC329FD0}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-01EF-44B5-89EB-380EAC329FD0}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-01EF-44B5-89EB-380EAC329FD0}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="00B0F0"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000009-01EF-44B5-89EB-380EAC329FD0}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="5"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="00B0F0"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000B-01EF-44B5-89EB-380EAC329FD0}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="6"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="7030A0"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000D-01EF-44B5-89EB-380EAC329FD0}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="7"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="7030A0"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000F-01EF-44B5-89EB-380EAC329FD0}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="8"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FFFF00"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000011-01EF-44B5-89EB-380EAC329FD0}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="9"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FFFF00"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000013-01EF-44B5-89EB-380EAC329FD0}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
           <c:cat>
             <c:strRef>
               <c:f>Sheet1!$B$2:$B$11</c:f>
@@ -914,46 +1123,46 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$J$2:$J$11</c:f>
+              <c:f>Sheet1!$K$2:$K$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>1.2503939632818599E-3</c:v>
+                  <c:v>4.3245596311928596</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.2528511302648099E-3</c:v>
+                  <c:v>4.1280965522904403</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.0890792283644998E-3</c:v>
+                  <c:v>29.063935133466199</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.09145052001251E-3</c:v>
+                  <c:v>28.8251372265848</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.1351227685669598E-3</c:v>
+                  <c:v>39.403216265139001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.1388588864068099E-3</c:v>
+                  <c:v>39.057324884118998</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.35738808704975E-3</c:v>
+                  <c:v>46.361208843857099</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.3613025521115501E-3</c:v>
+                  <c:v>45.991402543505998</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.25065435266851E-3</c:v>
+                  <c:v>4.0229075418736002</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.2519636589547001E-3</c:v>
+                  <c:v>3.8766038123830802</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000014-289F-4605-BD76-9E2D4A395539}"/>
+              <c16:uniqueId val="{00000014-01EF-44B5-89EB-380EAC329FD0}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1049,11 +1258,17 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>CO2 Eq. (Kg)</a:t>
+                  <a:t>m3</a:t>
                 </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> world eq. deprived</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1128,6 +1343,7 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -1135,7 +1351,1156 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
+  </c:chart>
+  <c:spPr>
+    <a:noFill/>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:noFill/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="fr-FR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Acidification</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="92D050"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-BB41-4294-902F-93424DDF2A51}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="92D050"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-BB41-4294-902F-93424DDF2A51}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-BB41-4294-902F-93424DDF2A51}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-BB41-4294-902F-93424DDF2A51}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="00B0F0"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000009-BB41-4294-902F-93424DDF2A51}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="5"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="00B0F0"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000B-BB41-4294-902F-93424DDF2A51}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="6"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="7030A0"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000D-BB41-4294-902F-93424DDF2A51}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="7"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="7030A0"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000F-BB41-4294-902F-93424DDF2A51}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="8"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FFFF00"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000011-BB41-4294-902F-93424DDF2A51}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="9"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FFFF00"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000013-BB41-4294-902F-93424DDF2A51}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$2:$B$11</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>LFP, Base 2021</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>LFP, RCP26 2040</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>NMC-622, Base 2021</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>NMC-622, RCP26 2040</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>NMC811, Base 2021</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>NMC811, RCP26 2040</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>NCA, Base 2021</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>NCA,RCP26 2040</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>PLIB, Base 2021</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>PLIB, RCP26 2040</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$L$2:$L$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.25384620951763198</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.24020490732460401</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.21034330073156701</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.19020834747343199</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.24067653325528601</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.214550013563825</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.254644902763286</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.22751443493828499</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.24900579569259201</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.241083223975885</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000014-BB41-4294-902F-93424DDF2A51}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="65376432"/>
+        <c:axId val="65697616"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="65376432"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="65697616"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="65697616"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>mol H+</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> Eq</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="65376432"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+  </c:chart>
+  <c:spPr>
+    <a:noFill/>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:noFill/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="fr-FR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Material</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> resources: metals/minerals</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="92D050"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-1DD6-4E00-98C4-BD29EAF36193}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="92D050"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-1DD6-4E00-98C4-BD29EAF36193}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-1DD6-4E00-98C4-BD29EAF36193}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-1DD6-4E00-98C4-BD29EAF36193}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="00B0F0"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000009-1DD6-4E00-98C4-BD29EAF36193}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="5"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="00B0F0"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000B-1DD6-4E00-98C4-BD29EAF36193}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="6"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="7030A0"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000D-1DD6-4E00-98C4-BD29EAF36193}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="7"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="7030A0"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000F-1DD6-4E00-98C4-BD29EAF36193}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="8"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FFFF00"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000011-1DD6-4E00-98C4-BD29EAF36193}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="9"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FFFF00"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000013-1DD6-4E00-98C4-BD29EAF36193}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$2:$B$11</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>LFP, Base 2021</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>LFP, RCP26 2040</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>NMC-622, Base 2021</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>NMC-622, RCP26 2040</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>NMC811, Base 2021</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>NMC811, RCP26 2040</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>NCA, Base 2021</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>NCA,RCP26 2040</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>PLIB, Base 2021</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>PLIB, RCP26 2040</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$J$2:$J$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1.2503939632818599E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.2528511302648099E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.0890792283644998E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.09145052001251E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.1351227685669598E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.1388588864068099E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.35738808704975E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.3613025521115501E-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.25065435266851E-3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.2519636589547001E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000014-1DD6-4E00-98C4-BD29EAF36193}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="65376432"/>
+        <c:axId val="65697616"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="65376432"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="65697616"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="65697616"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>kg SB - Eq</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="65376432"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
   </c:chart>
   <c:spPr>
     <a:noFill/>
@@ -1237,6 +2602,80 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="12">
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="12">
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
@@ -1741,6 +3180,1012 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -2281,25 +4726,63 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>23090</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1824050</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>34636</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Image 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="2424545"/>
+          <a:ext cx="1824050" cy="750455"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>3463636</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>92364</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>601980</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>83820</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>286096</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>178031</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="6" name="Chart 5">
+        <xdr:cNvPr id="5" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{81429380-0D37-4940-937B-B7525E31A611}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E3EEEF09-DB5A-43CB-9870-1C83D523DA21}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2313,7 +4796,83 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>496454</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>115455</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>9005</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>16395</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E3EEEF09-DB5A-43CB-9870-1C83D523DA21}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>461818</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>586278</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>85668</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E3EEEF09-DB5A-43CB-9870-1C83D523DA21}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2618,20 +5177,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{317C52A7-36DE-4B19-934A-6CFF8F9FC515}">
-  <dimension ref="A1:L11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O63"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="61" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="M16" sqref="M16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="98.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.6640625" customWidth="1"/>
+    <col min="1" max="1" width="98.54296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2666,7 +5225,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -2704,7 +5263,7 @@
         <v>0.25384620951763198</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>30</v>
       </c>
@@ -2742,7 +5301,7 @@
         <v>0.24020490732460401</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>17</v>
       </c>
@@ -2780,7 +5339,7 @@
         <v>0.21034330073156701</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>32</v>
       </c>
@@ -2818,7 +5377,7 @@
         <v>0.19020834747343199</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>21</v>
       </c>
@@ -2856,7 +5415,7 @@
         <v>0.24067653325528601</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>33</v>
       </c>
@@ -2894,7 +5453,7 @@
         <v>0.214550013563825</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>24</v>
       </c>
@@ -2932,7 +5491,7 @@
         <v>0.254644902763286</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>34</v>
       </c>
@@ -2970,7 +5529,7 @@
         <v>0.22751443493828499</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>27</v>
       </c>
@@ -3008,7 +5567,7 @@
         <v>0.24900579569259201</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>35</v>
       </c>
@@ -3045,6 +5604,856 @@
       <c r="L11">
         <v>0.241083223975885</v>
       </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="1"/>
+      <c r="M14" s="1"/>
+      <c r="N14" s="1"/>
+      <c r="O14" s="1"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="1"/>
+      <c r="M15" s="1"/>
+      <c r="N15" s="1"/>
+      <c r="O15" s="1"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="1"/>
+      <c r="M16" s="1"/>
+      <c r="N16" s="1"/>
+      <c r="O16" s="1"/>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1"/>
+      <c r="L17" s="1"/>
+      <c r="M17" s="1"/>
+      <c r="N17" s="1"/>
+      <c r="O17" s="1"/>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="1"/>
+      <c r="M18" s="1"/>
+      <c r="N18" s="1"/>
+      <c r="O18" s="1"/>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
+      <c r="L19" s="1"/>
+      <c r="M19" s="1"/>
+      <c r="N19" s="1"/>
+      <c r="O19" s="1"/>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
+      <c r="L20" s="1"/>
+      <c r="M20" s="1"/>
+      <c r="N20" s="1"/>
+      <c r="O20" s="1"/>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A21" s="1"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
+      <c r="J21" s="1"/>
+      <c r="K21" s="1"/>
+      <c r="L21" s="1"/>
+      <c r="M21" s="1"/>
+      <c r="N21" s="1"/>
+      <c r="O21" s="1"/>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A22" s="1"/>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
+      <c r="J22" s="1"/>
+      <c r="K22" s="1"/>
+      <c r="L22" s="1"/>
+      <c r="M22" s="1"/>
+      <c r="N22" s="1"/>
+      <c r="O22" s="1"/>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A23" s="1"/>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1"/>
+      <c r="J23" s="1"/>
+      <c r="K23" s="1"/>
+      <c r="L23" s="1"/>
+      <c r="M23" s="1"/>
+      <c r="N23" s="1"/>
+      <c r="O23" s="1"/>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A24" s="1"/>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1"/>
+      <c r="J24" s="1"/>
+      <c r="K24" s="1"/>
+      <c r="L24" s="1"/>
+      <c r="M24" s="1"/>
+      <c r="N24" s="1"/>
+      <c r="O24" s="1"/>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A25" s="1"/>
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
+      <c r="H25" s="1"/>
+      <c r="I25" s="1"/>
+      <c r="J25" s="1"/>
+      <c r="K25" s="1"/>
+      <c r="L25" s="1"/>
+      <c r="M25" s="1"/>
+      <c r="N25" s="1"/>
+      <c r="O25" s="1"/>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A26" s="1"/>
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
+      <c r="H26" s="1"/>
+      <c r="I26" s="1"/>
+      <c r="J26" s="1"/>
+      <c r="K26" s="1"/>
+      <c r="L26" s="1"/>
+      <c r="M26" s="1"/>
+      <c r="N26" s="1"/>
+      <c r="O26" s="1"/>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A27" s="1"/>
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1"/>
+      <c r="H27" s="1"/>
+      <c r="I27" s="1"/>
+      <c r="J27" s="1"/>
+      <c r="K27" s="1"/>
+      <c r="L27" s="1"/>
+      <c r="M27" s="1"/>
+      <c r="N27" s="1"/>
+      <c r="O27" s="1"/>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A28" s="1"/>
+      <c r="B28" s="1"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1"/>
+      <c r="H28" s="1"/>
+      <c r="I28" s="1"/>
+      <c r="J28" s="1"/>
+      <c r="K28" s="1"/>
+      <c r="L28" s="1"/>
+      <c r="M28" s="1"/>
+      <c r="N28" s="1"/>
+      <c r="O28" s="1"/>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A29" s="1"/>
+      <c r="B29" s="1"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
+      <c r="G29" s="1"/>
+      <c r="H29" s="1"/>
+      <c r="I29" s="1"/>
+      <c r="J29" s="1"/>
+      <c r="K29" s="1"/>
+      <c r="L29" s="1"/>
+      <c r="M29" s="1"/>
+      <c r="N29" s="1"/>
+      <c r="O29" s="1"/>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A30" s="1"/>
+      <c r="B30" s="1"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
+      <c r="G30" s="1"/>
+      <c r="H30" s="1"/>
+      <c r="I30" s="1"/>
+      <c r="J30" s="1"/>
+      <c r="K30" s="1"/>
+      <c r="L30" s="1"/>
+      <c r="M30" s="1"/>
+      <c r="N30" s="1"/>
+      <c r="O30" s="1"/>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A31" s="1"/>
+      <c r="B31" s="1"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1"/>
+      <c r="G31" s="1"/>
+      <c r="H31" s="1"/>
+      <c r="I31" s="1"/>
+      <c r="J31" s="1"/>
+      <c r="K31" s="1"/>
+      <c r="L31" s="1"/>
+      <c r="M31" s="1"/>
+      <c r="N31" s="1"/>
+      <c r="O31" s="1"/>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A32" s="1"/>
+      <c r="B32" s="1"/>
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1"/>
+      <c r="F32" s="1"/>
+      <c r="G32" s="1"/>
+      <c r="H32" s="1"/>
+      <c r="I32" s="1"/>
+      <c r="J32" s="1"/>
+      <c r="K32" s="1"/>
+      <c r="L32" s="1"/>
+      <c r="M32" s="1"/>
+      <c r="N32" s="1"/>
+      <c r="O32" s="1"/>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A33" s="1"/>
+      <c r="B33" s="1"/>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
+      <c r="E33" s="1"/>
+      <c r="F33" s="1"/>
+      <c r="G33" s="1"/>
+      <c r="H33" s="1"/>
+      <c r="I33" s="1"/>
+      <c r="J33" s="1"/>
+      <c r="K33" s="1"/>
+      <c r="L33" s="1"/>
+      <c r="M33" s="1"/>
+      <c r="N33" s="1"/>
+      <c r="O33" s="1"/>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A34" s="1"/>
+      <c r="B34" s="1"/>
+      <c r="C34" s="1"/>
+      <c r="D34" s="1"/>
+      <c r="E34" s="1"/>
+      <c r="F34" s="1"/>
+      <c r="G34" s="1"/>
+      <c r="H34" s="1"/>
+      <c r="I34" s="1"/>
+      <c r="J34" s="1"/>
+      <c r="K34" s="1"/>
+      <c r="L34" s="1"/>
+      <c r="M34" s="1"/>
+      <c r="N34" s="1"/>
+      <c r="O34" s="1"/>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A35" s="1"/>
+      <c r="B35" s="1"/>
+      <c r="C35" s="1"/>
+      <c r="D35" s="1"/>
+      <c r="E35" s="1"/>
+      <c r="F35" s="1"/>
+      <c r="G35" s="1"/>
+      <c r="H35" s="1"/>
+      <c r="I35" s="1"/>
+      <c r="J35" s="1"/>
+      <c r="K35" s="1"/>
+      <c r="L35" s="1"/>
+      <c r="M35" s="1"/>
+      <c r="N35" s="1"/>
+      <c r="O35" s="1"/>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A36" s="1"/>
+      <c r="B36" s="1"/>
+      <c r="C36" s="1"/>
+      <c r="D36" s="1"/>
+      <c r="E36" s="1"/>
+      <c r="F36" s="1"/>
+      <c r="G36" s="1"/>
+      <c r="H36" s="1"/>
+      <c r="I36" s="1"/>
+      <c r="J36" s="1"/>
+      <c r="K36" s="1"/>
+      <c r="L36" s="1"/>
+      <c r="M36" s="1"/>
+      <c r="N36" s="1"/>
+      <c r="O36" s="1"/>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A37" s="1"/>
+      <c r="B37" s="1"/>
+      <c r="C37" s="1"/>
+      <c r="D37" s="1"/>
+      <c r="E37" s="1"/>
+      <c r="F37" s="1"/>
+      <c r="G37" s="1"/>
+      <c r="H37" s="1"/>
+      <c r="I37" s="1"/>
+      <c r="J37" s="1"/>
+      <c r="K37" s="1"/>
+      <c r="L37" s="1"/>
+      <c r="M37" s="1"/>
+      <c r="N37" s="1"/>
+      <c r="O37" s="1"/>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A38" s="1"/>
+      <c r="B38" s="1"/>
+      <c r="C38" s="1"/>
+      <c r="D38" s="1"/>
+      <c r="E38" s="1"/>
+      <c r="F38" s="1"/>
+      <c r="G38" s="1"/>
+      <c r="H38" s="1"/>
+      <c r="I38" s="1"/>
+      <c r="J38" s="1"/>
+      <c r="K38" s="1"/>
+      <c r="L38" s="1"/>
+      <c r="M38" s="1"/>
+      <c r="N38" s="1"/>
+      <c r="O38" s="1"/>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A39" s="1"/>
+      <c r="B39" s="1"/>
+      <c r="C39" s="1"/>
+      <c r="D39" s="1"/>
+      <c r="E39" s="1"/>
+      <c r="F39" s="1"/>
+      <c r="G39" s="1"/>
+      <c r="H39" s="1"/>
+      <c r="I39" s="1"/>
+      <c r="J39" s="1"/>
+      <c r="K39" s="1"/>
+      <c r="L39" s="1"/>
+      <c r="M39" s="1"/>
+      <c r="N39" s="1"/>
+      <c r="O39" s="1"/>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A40" s="1"/>
+      <c r="B40" s="1"/>
+      <c r="C40" s="1"/>
+      <c r="D40" s="1"/>
+      <c r="E40" s="1"/>
+      <c r="F40" s="1"/>
+      <c r="G40" s="1"/>
+      <c r="H40" s="1"/>
+      <c r="I40" s="1"/>
+      <c r="J40" s="1"/>
+      <c r="K40" s="1"/>
+      <c r="L40" s="1"/>
+      <c r="M40" s="1"/>
+      <c r="N40" s="1"/>
+      <c r="O40" s="1"/>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A41" s="1"/>
+      <c r="B41" s="1"/>
+      <c r="C41" s="1"/>
+      <c r="D41" s="1"/>
+      <c r="E41" s="1"/>
+      <c r="F41" s="1"/>
+      <c r="G41" s="1"/>
+      <c r="H41" s="1"/>
+      <c r="I41" s="1"/>
+      <c r="J41" s="1"/>
+      <c r="K41" s="1"/>
+      <c r="L41" s="1"/>
+      <c r="M41" s="1"/>
+      <c r="N41" s="1"/>
+      <c r="O41" s="1"/>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A42" s="1"/>
+      <c r="B42" s="1"/>
+      <c r="C42" s="1"/>
+      <c r="D42" s="1"/>
+      <c r="E42" s="1"/>
+      <c r="F42" s="1"/>
+      <c r="G42" s="1"/>
+      <c r="H42" s="1"/>
+      <c r="I42" s="1"/>
+      <c r="J42" s="1"/>
+      <c r="K42" s="1"/>
+      <c r="L42" s="1"/>
+      <c r="M42" s="1"/>
+      <c r="N42" s="1"/>
+      <c r="O42" s="1"/>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A43" s="1"/>
+      <c r="B43" s="1"/>
+      <c r="C43" s="1"/>
+      <c r="D43" s="1"/>
+      <c r="E43" s="1"/>
+      <c r="F43" s="1"/>
+      <c r="G43" s="1"/>
+      <c r="H43" s="1"/>
+      <c r="I43" s="1"/>
+      <c r="J43" s="1"/>
+      <c r="K43" s="1"/>
+      <c r="L43" s="1"/>
+      <c r="M43" s="1"/>
+      <c r="N43" s="1"/>
+      <c r="O43" s="1"/>
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A44" s="1"/>
+      <c r="B44" s="1"/>
+      <c r="C44" s="1"/>
+      <c r="D44" s="1"/>
+      <c r="E44" s="1"/>
+      <c r="F44" s="1"/>
+      <c r="G44" s="1"/>
+      <c r="H44" s="1"/>
+      <c r="I44" s="1"/>
+      <c r="J44" s="1"/>
+      <c r="K44" s="1"/>
+      <c r="L44" s="1"/>
+      <c r="M44" s="1"/>
+      <c r="N44" s="1"/>
+      <c r="O44" s="1"/>
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A45" s="1"/>
+      <c r="B45" s="1"/>
+      <c r="C45" s="1"/>
+      <c r="D45" s="1"/>
+      <c r="E45" s="1"/>
+      <c r="F45" s="1"/>
+      <c r="G45" s="1"/>
+      <c r="H45" s="1"/>
+      <c r="I45" s="1"/>
+      <c r="J45" s="1"/>
+      <c r="K45" s="1"/>
+      <c r="L45" s="1"/>
+      <c r="M45" s="1"/>
+      <c r="N45" s="1"/>
+      <c r="O45" s="1"/>
+    </row>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A46" s="1"/>
+      <c r="B46" s="1"/>
+      <c r="C46" s="1"/>
+      <c r="D46" s="1"/>
+      <c r="E46" s="1"/>
+      <c r="F46" s="1"/>
+      <c r="G46" s="1"/>
+      <c r="H46" s="1"/>
+      <c r="I46" s="1"/>
+      <c r="J46" s="1"/>
+      <c r="K46" s="1"/>
+      <c r="L46" s="1"/>
+      <c r="M46" s="1"/>
+      <c r="N46" s="1"/>
+      <c r="O46" s="1"/>
+    </row>
+    <row r="47" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A47" s="1"/>
+      <c r="B47" s="1"/>
+      <c r="C47" s="1"/>
+      <c r="D47" s="1"/>
+      <c r="E47" s="1"/>
+      <c r="F47" s="1"/>
+      <c r="G47" s="1"/>
+      <c r="H47" s="1"/>
+      <c r="I47" s="1"/>
+      <c r="J47" s="1"/>
+      <c r="K47" s="1"/>
+      <c r="L47" s="1"/>
+      <c r="M47" s="1"/>
+      <c r="N47" s="1"/>
+      <c r="O47" s="1"/>
+    </row>
+    <row r="48" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A48" s="1"/>
+      <c r="B48" s="1"/>
+      <c r="C48" s="1"/>
+      <c r="D48" s="1"/>
+      <c r="E48" s="1"/>
+      <c r="F48" s="1"/>
+      <c r="G48" s="1"/>
+      <c r="H48" s="1"/>
+      <c r="I48" s="1"/>
+      <c r="J48" s="1"/>
+      <c r="K48" s="1"/>
+      <c r="L48" s="1"/>
+      <c r="M48" s="1"/>
+      <c r="N48" s="1"/>
+      <c r="O48" s="1"/>
+    </row>
+    <row r="49" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A49" s="1"/>
+      <c r="B49" s="1"/>
+      <c r="C49" s="1"/>
+      <c r="D49" s="1"/>
+      <c r="E49" s="1"/>
+      <c r="F49" s="1"/>
+      <c r="G49" s="1"/>
+      <c r="H49" s="1"/>
+      <c r="I49" s="1"/>
+      <c r="J49" s="1"/>
+      <c r="K49" s="1"/>
+      <c r="L49" s="1"/>
+      <c r="M49" s="1"/>
+      <c r="N49" s="1"/>
+      <c r="O49" s="1"/>
+    </row>
+    <row r="50" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A50" s="1"/>
+      <c r="B50" s="1"/>
+      <c r="C50" s="1"/>
+      <c r="D50" s="1"/>
+      <c r="E50" s="1"/>
+      <c r="F50" s="1"/>
+      <c r="G50" s="1"/>
+      <c r="H50" s="1"/>
+      <c r="I50" s="1"/>
+      <c r="J50" s="1"/>
+      <c r="K50" s="1"/>
+      <c r="L50" s="1"/>
+      <c r="M50" s="1"/>
+      <c r="N50" s="1"/>
+      <c r="O50" s="1"/>
+    </row>
+    <row r="51" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A51" s="1"/>
+      <c r="B51" s="1"/>
+      <c r="C51" s="1"/>
+      <c r="D51" s="1"/>
+      <c r="E51" s="1"/>
+      <c r="F51" s="1"/>
+      <c r="G51" s="1"/>
+      <c r="H51" s="1"/>
+      <c r="I51" s="1"/>
+      <c r="J51" s="1"/>
+      <c r="K51" s="1"/>
+      <c r="L51" s="1"/>
+      <c r="M51" s="1"/>
+      <c r="N51" s="1"/>
+      <c r="O51" s="1"/>
+    </row>
+    <row r="52" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A52" s="1"/>
+      <c r="B52" s="1"/>
+      <c r="C52" s="1"/>
+      <c r="D52" s="1"/>
+      <c r="E52" s="1"/>
+      <c r="F52" s="1"/>
+      <c r="G52" s="1"/>
+      <c r="H52" s="1"/>
+      <c r="I52" s="1"/>
+      <c r="J52" s="1"/>
+      <c r="K52" s="1"/>
+      <c r="L52" s="1"/>
+      <c r="M52" s="1"/>
+      <c r="N52" s="1"/>
+      <c r="O52" s="1"/>
+    </row>
+    <row r="53" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A53" s="1"/>
+      <c r="B53" s="1"/>
+      <c r="C53" s="1"/>
+      <c r="D53" s="1"/>
+      <c r="E53" s="1"/>
+      <c r="F53" s="1"/>
+      <c r="G53" s="1"/>
+      <c r="H53" s="1"/>
+      <c r="I53" s="1"/>
+      <c r="J53" s="1"/>
+      <c r="K53" s="1"/>
+      <c r="L53" s="1"/>
+      <c r="M53" s="1"/>
+      <c r="N53" s="1"/>
+      <c r="O53" s="1"/>
+    </row>
+    <row r="54" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A54" s="1"/>
+      <c r="B54" s="1"/>
+      <c r="C54" s="1"/>
+      <c r="D54" s="1"/>
+      <c r="E54" s="1"/>
+      <c r="F54" s="1"/>
+      <c r="G54" s="1"/>
+      <c r="H54" s="1"/>
+      <c r="I54" s="1"/>
+      <c r="J54" s="1"/>
+      <c r="K54" s="1"/>
+      <c r="L54" s="1"/>
+      <c r="M54" s="1"/>
+      <c r="N54" s="1"/>
+      <c r="O54" s="1"/>
+    </row>
+    <row r="55" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A55" s="1"/>
+      <c r="B55" s="1"/>
+      <c r="C55" s="1"/>
+      <c r="D55" s="1"/>
+      <c r="E55" s="1"/>
+      <c r="F55" s="1"/>
+      <c r="G55" s="1"/>
+      <c r="H55" s="1"/>
+      <c r="I55" s="1"/>
+      <c r="J55" s="1"/>
+      <c r="K55" s="1"/>
+      <c r="L55" s="1"/>
+      <c r="M55" s="1"/>
+      <c r="N55" s="1"/>
+      <c r="O55" s="1"/>
+    </row>
+    <row r="56" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A56" s="1"/>
+      <c r="B56" s="1"/>
+      <c r="C56" s="1"/>
+      <c r="D56" s="1"/>
+      <c r="E56" s="1"/>
+      <c r="F56" s="1"/>
+      <c r="G56" s="1"/>
+      <c r="H56" s="1"/>
+      <c r="I56" s="1"/>
+      <c r="J56" s="1"/>
+      <c r="K56" s="1"/>
+      <c r="L56" s="1"/>
+      <c r="M56" s="1"/>
+      <c r="N56" s="1"/>
+      <c r="O56" s="1"/>
+    </row>
+    <row r="57" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A57" s="1"/>
+      <c r="B57" s="1"/>
+      <c r="C57" s="1"/>
+      <c r="D57" s="1"/>
+      <c r="E57" s="1"/>
+      <c r="F57" s="1"/>
+      <c r="G57" s="1"/>
+      <c r="H57" s="1"/>
+      <c r="I57" s="1"/>
+      <c r="J57" s="1"/>
+      <c r="K57" s="1"/>
+      <c r="L57" s="1"/>
+      <c r="M57" s="1"/>
+      <c r="N57" s="1"/>
+      <c r="O57" s="1"/>
+    </row>
+    <row r="58" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A58" s="1"/>
+      <c r="B58" s="1"/>
+      <c r="C58" s="1"/>
+      <c r="D58" s="1"/>
+      <c r="E58" s="1"/>
+      <c r="F58" s="1"/>
+      <c r="G58" s="1"/>
+      <c r="H58" s="1"/>
+      <c r="I58" s="1"/>
+      <c r="J58" s="1"/>
+      <c r="K58" s="1"/>
+      <c r="L58" s="1"/>
+      <c r="M58" s="1"/>
+      <c r="N58" s="1"/>
+      <c r="O58" s="1"/>
+    </row>
+    <row r="59" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A59" s="1"/>
+      <c r="B59" s="1"/>
+      <c r="C59" s="1"/>
+      <c r="D59" s="1"/>
+      <c r="E59" s="1"/>
+      <c r="F59" s="1"/>
+      <c r="G59" s="1"/>
+      <c r="H59" s="1"/>
+      <c r="I59" s="1"/>
+      <c r="J59" s="1"/>
+      <c r="K59" s="1"/>
+      <c r="L59" s="1"/>
+      <c r="M59" s="1"/>
+      <c r="N59" s="1"/>
+      <c r="O59" s="1"/>
+    </row>
+    <row r="60" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A60" s="1"/>
+      <c r="B60" s="1"/>
+      <c r="C60" s="1"/>
+      <c r="D60" s="1"/>
+      <c r="E60" s="1"/>
+      <c r="F60" s="1"/>
+      <c r="G60" s="1"/>
+      <c r="H60" s="1"/>
+      <c r="I60" s="1"/>
+      <c r="J60" s="1"/>
+      <c r="K60" s="1"/>
+      <c r="L60" s="1"/>
+      <c r="M60" s="1"/>
+      <c r="N60" s="1"/>
+      <c r="O60" s="1"/>
+    </row>
+    <row r="61" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A61" s="1"/>
+      <c r="B61" s="1"/>
+      <c r="C61" s="1"/>
+      <c r="D61" s="1"/>
+      <c r="E61" s="1"/>
+      <c r="F61" s="1"/>
+      <c r="G61" s="1"/>
+      <c r="H61" s="1"/>
+      <c r="I61" s="1"/>
+      <c r="J61" s="1"/>
+      <c r="K61" s="1"/>
+      <c r="L61" s="1"/>
+      <c r="M61" s="1"/>
+      <c r="N61" s="1"/>
+      <c r="O61" s="1"/>
+    </row>
+    <row r="62" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A62" s="1"/>
+      <c r="B62" s="1"/>
+      <c r="C62" s="1"/>
+      <c r="D62" s="1"/>
+      <c r="E62" s="1"/>
+      <c r="F62" s="1"/>
+      <c r="G62" s="1"/>
+      <c r="H62" s="1"/>
+      <c r="I62" s="1"/>
+      <c r="J62" s="1"/>
+      <c r="K62" s="1"/>
+      <c r="L62" s="1"/>
+      <c r="M62" s="1"/>
+      <c r="N62" s="1"/>
+      <c r="O62" s="1"/>
+    </row>
+    <row r="63" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A63" s="1"/>
+      <c r="B63" s="1"/>
+      <c r="C63" s="1"/>
+      <c r="D63" s="1"/>
+      <c r="E63" s="1"/>
+      <c r="F63" s="1"/>
+      <c r="G63" s="1"/>
+      <c r="H63" s="1"/>
+      <c r="I63" s="1"/>
+      <c r="J63" s="1"/>
+      <c r="K63" s="1"/>
+      <c r="L63" s="1"/>
+      <c r="M63" s="1"/>
+      <c r="N63" s="1"/>
+      <c r="O63" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Results/Battery_Impact factors_results.xlsx
+++ b/Results/Battery_Impact factors_results.xlsx
@@ -251,13 +251,16 @@
                     <a:lumOff val="35000"/>
                   </a:schemeClr>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
+                <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
                 <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
+                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US"/>
+              <a:rPr lang="en-US">
+                <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              </a:rPr>
               <a:t>Global warming potential</a:t>
             </a:r>
           </a:p>
@@ -284,9 +287,9 @@
                   <a:lumOff val="35000"/>
                 </a:schemeClr>
               </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
               <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
             </a:defRPr>
           </a:pPr>
           <a:endParaRPr lang="en-US"/>
@@ -628,16 +631,16 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
                     <a:lumOff val="35000"/>
                   </a:schemeClr>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
+                <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
                 <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
+                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
               </a:defRPr>
             </a:pPr>
             <a:endParaRPr lang="en-US"/>
@@ -671,25 +674,37 @@
                         <a:lumOff val="35000"/>
                       </a:schemeClr>
                     </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
+                    <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
                     <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
+                    <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US"/>
+                  <a:rPr lang="en-US">
+                    <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                    <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                  </a:rPr>
                   <a:t>kg CO2-</a:t>
                 </a:r>
                 <a:r>
-                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:rPr lang="en-US" baseline="0">
+                    <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                    <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                  </a:rPr>
                   <a:t> Eq</a:t>
                 </a:r>
               </a:p>
               <a:p>
                 <a:pPr>
-                  <a:defRPr/>
+                  <a:defRPr>
+                    <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                    <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                  </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="en-US">
+                  <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                  <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                </a:endParaRPr>
               </a:p>
             </c:rich>
           </c:tx>
@@ -714,9 +729,9 @@
                       <a:lumOff val="35000"/>
                     </a:schemeClr>
                   </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
+                  <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
                   <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
+                  <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
                 </a:defRPr>
               </a:pPr>
               <a:endParaRPr lang="en-US"/>
@@ -746,9 +761,9 @@
                     <a:lumOff val="35000"/>
                   </a:schemeClr>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
+                <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
                 <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
+                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
               </a:defRPr>
             </a:pPr>
             <a:endParaRPr lang="en-US"/>
@@ -831,13 +846,16 @@
                     <a:lumOff val="35000"/>
                   </a:schemeClr>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
+                <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
                 <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
+                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US"/>
+              <a:rPr lang="en-US">
+                <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              </a:rPr>
               <a:t>Water use</a:t>
             </a:r>
           </a:p>
@@ -864,9 +882,9 @@
                   <a:lumOff val="35000"/>
                 </a:schemeClr>
               </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
               <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
             </a:defRPr>
           </a:pPr>
           <a:endParaRPr lang="en-US"/>
@@ -1208,16 +1226,16 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
                     <a:lumOff val="35000"/>
                   </a:schemeClr>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
+                <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
                 <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
+                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
               </a:defRPr>
             </a:pPr>
             <a:endParaRPr lang="en-US"/>
@@ -1251,20 +1269,29 @@
                         <a:lumOff val="35000"/>
                       </a:schemeClr>
                     </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
+                    <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
                     <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
+                    <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US"/>
+                  <a:rPr lang="en-US">
+                    <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                    <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                  </a:rPr>
                   <a:t>m3</a:t>
                 </a:r>
                 <a:r>
-                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:rPr lang="en-US" baseline="0">
+                    <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                    <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                  </a:rPr>
                   <a:t> world eq. deprived</a:t>
                 </a:r>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="en-US">
+                  <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                  <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                </a:endParaRPr>
               </a:p>
             </c:rich>
           </c:tx>
@@ -1289,9 +1316,9 @@
                       <a:lumOff val="35000"/>
                     </a:schemeClr>
                   </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
+                  <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
                   <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
+                  <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
                 </a:defRPr>
               </a:pPr>
               <a:endParaRPr lang="en-US"/>
@@ -1321,9 +1348,9 @@
                     <a:lumOff val="35000"/>
                   </a:schemeClr>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
+                <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
                 <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
+                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
               </a:defRPr>
             </a:pPr>
             <a:endParaRPr lang="en-US"/>
@@ -1406,13 +1433,16 @@
                     <a:lumOff val="35000"/>
                   </a:schemeClr>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
+                <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
                 <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
+                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US"/>
+              <a:rPr lang="en-US">
+                <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              </a:rPr>
               <a:t>Acidification</a:t>
             </a:r>
           </a:p>
@@ -1439,9 +1469,9 @@
                   <a:lumOff val="35000"/>
                 </a:schemeClr>
               </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
               <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
             </a:defRPr>
           </a:pPr>
           <a:endParaRPr lang="en-US"/>
@@ -1783,16 +1813,16 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
                     <a:lumOff val="35000"/>
                   </a:schemeClr>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
+                <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
                 <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
+                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
               </a:defRPr>
             </a:pPr>
             <a:endParaRPr lang="en-US"/>
@@ -1826,20 +1856,29 @@
                         <a:lumOff val="35000"/>
                       </a:schemeClr>
                     </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
+                    <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
                     <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
+                    <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US"/>
+                  <a:rPr lang="en-US">
+                    <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                    <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                  </a:rPr>
                   <a:t>mol H+</a:t>
                 </a:r>
                 <a:r>
-                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:rPr lang="en-US" baseline="0">
+                    <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                    <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                  </a:rPr>
                   <a:t> Eq</a:t>
                 </a:r>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="en-US">
+                  <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                  <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                </a:endParaRPr>
               </a:p>
             </c:rich>
           </c:tx>
@@ -1864,9 +1903,9 @@
                       <a:lumOff val="35000"/>
                     </a:schemeClr>
                   </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
+                  <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
                   <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
+                  <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
                 </a:defRPr>
               </a:pPr>
               <a:endParaRPr lang="en-US"/>
@@ -1981,20 +2020,29 @@
                     <a:lumOff val="35000"/>
                   </a:schemeClr>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
+                <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
                 <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
+                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US"/>
+              <a:rPr lang="en-US">
+                <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              </a:rPr>
               <a:t>Material</a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
+              <a:rPr lang="en-US" baseline="0">
+                <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              </a:rPr>
               <a:t> resources: metals/minerals</a:t>
             </a:r>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="en-US">
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:endParaRPr>
           </a:p>
         </c:rich>
       </c:tx>
@@ -2019,9 +2067,9 @@
                   <a:lumOff val="35000"/>
                 </a:schemeClr>
               </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
               <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
             </a:defRPr>
           </a:pPr>
           <a:endParaRPr lang="en-US"/>
@@ -2363,16 +2411,16 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
                     <a:lumOff val="35000"/>
                   </a:schemeClr>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
+                <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
                 <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
+                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
               </a:defRPr>
             </a:pPr>
             <a:endParaRPr lang="en-US"/>
@@ -2406,14 +2454,17 @@
                         <a:lumOff val="35000"/>
                       </a:schemeClr>
                     </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
+                    <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
                     <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
+                    <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>kg SB - Eq</a:t>
+                  <a:rPr lang="en-US">
+                    <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                    <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                  </a:rPr>
+                  <a:t>kg Sb - Eq</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -2439,9 +2490,9 @@
                       <a:lumOff val="35000"/>
                     </a:schemeClr>
                   </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
+                  <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
                   <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
+                  <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
                 </a:defRPr>
               </a:pPr>
               <a:endParaRPr lang="en-US"/>
@@ -2471,9 +2522,9 @@
                     <a:lumOff val="35000"/>
                   </a:schemeClr>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
+                <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
                 <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
+                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
               </a:defRPr>
             </a:pPr>
             <a:endParaRPr lang="en-US"/>
@@ -5180,8 +5231,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="61" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="M16" sqref="M16"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="T20" sqref="T20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
